--- a/project/python/Zadachka2.xlsx
+++ b/project/python/Zadachka2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t xml:space="preserve">альфа (float)</t>
   </si>
@@ -40,31 +40,73 @@
     <t xml:space="preserve">Товар 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Статус: Infeasible</t>
-  </si>
-  <si>
     <t xml:space="preserve">Товар 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Сортировка: b/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Товар 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Значение целевой функции: -34620.00000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_0 = -98.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_1 = 9.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_2 = 9.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время решения: 0.0036199999999997345 сек.</t>
+    <t xml:space="preserve">Тест 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F = 30000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(получается)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(не получается)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = 0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = 12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Х = 8.4</t>
   </si>
 </sst>
 </file>
@@ -99,15 +141,21 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD3C1"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -122,6 +170,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -148,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,6 +213,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,6 +245,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD3C1"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -186,17 +313,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -227,22 +356,19 @@
       <c r="C2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>51</v>
@@ -250,22 +376,19 @@
       <c r="C3" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>105</v>
@@ -273,37 +396,479 @@
       <c r="C4" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="D4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H7" s="1" t="s">
+      <c r="B8" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2700</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
